--- a/src/test/resources/testData/testDataForTestV2Environment.xlsx
+++ b/src/test/resources/testData/testDataForTestV2Environment.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pankaj.yadav\eclipse-workspace\ExposureHubEverest\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pankaj.yadav\eclipse-workspace\ExposureHub\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -377,10 +377,10 @@
     <t>peril_Name</t>
   </si>
   <si>
-    <t>Policy_14022024_</t>
-  </si>
-  <si>
-    <t>Report_14022024_</t>
+    <t>Policy_21022024_</t>
+  </si>
+  <si>
+    <t>Report_21022024_</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/testDataForTestV2Environment.xlsx
+++ b/src/test/resources/testData/testDataForTestV2Environment.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15945" windowHeight="6180" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15945" windowHeight="6180" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="basicDetails" sheetId="8" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="114">
   <si>
     <t>Username</t>
   </si>
@@ -332,12 +332,6 @@
     <t>className_two_class_With_Different_Name</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>grade</t>
-  </si>
-  <si>
     <t>timer</t>
   </si>
   <si>
@@ -345,9 +339,6 @@
   </si>
   <si>
     <t>wind_power</t>
-  </si>
-  <si>
-    <t>Property</t>
   </si>
   <si>
     <t>Offshore</t>
@@ -513,7 +504,7 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -537,6 +528,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -860,7 +853,7 @@
         <v>94</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -899,7 +892,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
@@ -926,7 +919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -954,7 +947,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C2" s="5">
         <v>2</v>
@@ -987,7 +980,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C5" s="5">
         <v>5</v>
@@ -1017,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,10 +1037,10 @@
         <v>99</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1055,13 +1048,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>19</v>
@@ -1069,13 +1062,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" s="10"/>
     </row>
@@ -1104,62 +1097,54 @@
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="13"/>
+      <c r="A8" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="15"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>100</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>101</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>102</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>103</v>
-      </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>104</v>
-      </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/test/resources/testData/testDataForTestV2Environment.xlsx
+++ b/src/test/resources/testData/testDataForTestV2Environment.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15945" windowHeight="6180" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15945" windowHeight="6180" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="basicDetails" sheetId="8" r:id="rId1"/>
@@ -368,10 +368,10 @@
     <t>peril_Name</t>
   </si>
   <si>
-    <t>Policy_21022024_</t>
-  </si>
-  <si>
-    <t>Report_21022024_</t>
+    <t>Policy_P26022024_</t>
+  </si>
+  <si>
+    <t>Report_P26022024_</t>
   </si>
 </sst>
 </file>
@@ -919,7 +919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1012,7 +1012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/testData/testDataForTestV2Environment.xlsx
+++ b/src/test/resources/testData/testDataForTestV2Environment.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15945" windowHeight="6180" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15945" windowHeight="6180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="basicDetails" sheetId="8" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="117">
   <si>
     <t>Username</t>
   </si>
@@ -368,10 +368,19 @@
     <t>peril_Name</t>
   </si>
   <si>
-    <t>Policy_P26022024_</t>
-  </si>
-  <si>
-    <t>Report_P26022024_</t>
+    <t>Release Version</t>
+  </si>
+  <si>
+    <t>S105</t>
+  </si>
+  <si>
+    <t>Do you want send email after post test suite</t>
+  </si>
+  <si>
+    <t>Report_M18032024_</t>
+  </si>
+  <si>
+    <t>Policy_M18032024_</t>
   </si>
 </sst>
 </file>
@@ -382,7 +391,7 @@
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="[$-409]General"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,6 +444,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -504,7 +520,7 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -530,8 +546,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -820,46 +847,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="15" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="16" t="s">
         <v>108</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"chrome,firefox,edge"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+      <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -920,7 +966,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,8 +992,8 @@
       <c r="A2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>112</v>
+      <c r="B2" s="20" t="s">
+        <v>116</v>
       </c>
       <c r="C2" s="5">
         <v>2</v>
@@ -979,8 +1025,8 @@
       <c r="A5" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>113</v>
+      <c r="B5" s="19" t="s">
+        <v>115</v>
       </c>
       <c r="C5" s="5">
         <v>5</v>
@@ -1097,10 +1143,10 @@
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
     </row>

--- a/src/test/resources/testData/testDataForTestV2Environment.xlsx
+++ b/src/test/resources/testData/testDataForTestV2Environment.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15945" windowHeight="6180" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15945" windowHeight="6180"/>
   </bookViews>
   <sheets>
     <sheet name="basicDetails" sheetId="8" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="118">
   <si>
     <t>Username</t>
   </si>
@@ -381,6 +381,9 @@
   </si>
   <si>
     <t>Policy_M18032024_</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -553,12 +556,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -849,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,7 +899,7 @@
         <v>114</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -965,7 +968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -992,7 +995,7 @@
       <c r="A2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>116</v>
       </c>
       <c r="C2" s="5">
@@ -1025,7 +1028,7 @@
       <c r="A5" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>115</v>
       </c>
       <c r="C5" s="5">
@@ -1143,10 +1146,10 @@
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
     </row>

--- a/src/test/resources/testData/testDataForTestV2Environment.xlsx
+++ b/src/test/resources/testData/testDataForTestV2Environment.xlsx
@@ -853,7 +853,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
